--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -417,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -441,11 +465,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -463,6 +488,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,28 +513,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -441,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -466,11 +538,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -489,6 +564,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,28 +591,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -513,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -541,11 +565,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -567,6 +592,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,28 +617,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -537,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -566,11 +590,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -593,6 +618,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,28 +643,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -561,7 +609,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -591,11 +639,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -619,6 +669,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,28 +695,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -609,7 +633,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -641,11 +665,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -671,6 +696,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,28 +721,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2024_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -633,7 +657,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -666,11 +690,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -697,6 +722,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -721,28 +747,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
